--- a/user-testing-results/cs279_hw2_logs_wt_wnote.xlsx
+++ b/user-testing-results/cs279_hw2_logs_wt_wnote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13520" tabRatio="500"/>
+    <workbookView xWindow="140" yWindow="0" windowWidth="25600" windowHeight="13520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="cs279_hw2_logs_wt.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10841" uniqueCount="3662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10849" uniqueCount="3672">
   <si>
     <t>time</t>
   </si>
@@ -11005,6 +11005,36 @@
   </si>
   <si>
     <t>std error:</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Rib</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log-p-val: </t>
+  </si>
+  <si>
+    <t>p-val-CMvs Rib</t>
+  </si>
+  <si>
+    <t>Same parent(CMvsRib)</t>
+  </si>
+  <si>
+    <t>Different parent(CMvsRib)</t>
+  </si>
+  <si>
+    <t>tab switch (CMvsCM)</t>
+  </si>
+  <si>
+    <t>tab switch (Rib vs Rib)</t>
   </si>
 </sst>
 </file>
@@ -11053,8 +11083,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -11067,15 +11105,23 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11163,10 +11209,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Same parent</c:v>
+                  <c:v>Same parent(CMvsRib)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Different parent</c:v>
+                  <c:v>Different parent(CMvsRib)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11249,10 +11295,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Same parent</c:v>
+                  <c:v>Same parent(CMvsRib)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Different parent</c:v>
+                  <c:v>Different parent(CMvsRib)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11284,11 +11330,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2107466232"/>
-        <c:axId val="2106617000"/>
+        <c:axId val="-2138188984"/>
+        <c:axId val="-2139045656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2107466232"/>
+        <c:axId val="-2138188984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11321,7 +11367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106617000"/>
+        <c:crossAx val="-2139045656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11329,7 +11375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106617000"/>
+        <c:axId val="-2139045656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11364,7 +11410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107466232"/>
+        <c:crossAx val="-2138188984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11462,10 +11508,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Same parent</c:v>
+                  <c:v>Same parent(CMvsRib)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Different parent</c:v>
+                  <c:v>Different parent(CMvsRib)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11541,10 +11587,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Same parent</c:v>
+                  <c:v>Same parent(CMvsRib)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Different parent</c:v>
+                  <c:v>Different parent(CMvsRib)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11574,11 +11620,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2107567688"/>
-        <c:axId val="2053404312"/>
+        <c:axId val="2109464280"/>
+        <c:axId val="2104601368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107567688"/>
+        <c:axId val="2109464280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11611,7 +11657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2053404312"/>
+        <c:crossAx val="2104601368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11619,7 +11665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2053404312"/>
+        <c:axId val="2104601368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11653,7 +11699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107567688"/>
+        <c:crossAx val="2109464280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11679,16 +11725,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1511300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11710,15 +11756,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12064,14 +12110,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M14" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5" customWidth="1"/>
+    <col min="18" max="18" width="21.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.1640625" customWidth="1"/>
+    <col min="20" max="20" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -13219,10 +13268,16 @@
         <v>52</v>
       </c>
       <c r="Q16" t="s">
-        <v>3647</v>
+        <v>3668</v>
       </c>
       <c r="R16" t="s">
-        <v>3648</v>
+        <v>3669</v>
+      </c>
+      <c r="S16" t="s">
+        <v>3670</v>
+      </c>
+      <c r="T16" t="s">
+        <v>3671</v>
       </c>
       <c r="V16">
         <f t="shared" si="0"/>
@@ -13281,6 +13336,25 @@
       <c r="M17" t="s">
         <v>54</v>
       </c>
+      <c r="P17" t="s">
+        <v>3666</v>
+      </c>
+      <c r="Q17">
+        <f>TTEST(LOG(Q2:Q11),LOG(S2:S11),2,1)</f>
+        <v>0.40819829395731111</v>
+      </c>
+      <c r="R17">
+        <f>TTEST(LOG(R2:R11),LOG(T2:T11),2,1)</f>
+        <v>1.486872411028601E-6</v>
+      </c>
+      <c r="S17">
+        <f>TTEST(LOG(Q2:Q11),LOG(R2:R11),2,1)</f>
+        <v>8.1839085060872766E-10</v>
+      </c>
+      <c r="T17">
+        <f>TTEST(LOG(S2:S11),LOG(T2:T11),2,1)</f>
+        <v>2.1198036320375946E-8</v>
+      </c>
       <c r="V17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13337,6 +13411,14 @@
         <f>TTEST(R2:R11,T2:T11,2,1)</f>
         <v>1.4430861620836369E-5</v>
       </c>
+      <c r="S18">
+        <f>TTEST(Q2:Q11,R2:R11,2,1)</f>
+        <v>3.6157933176091096E-8</v>
+      </c>
+      <c r="T18">
+        <f>TTEST(S2:S11,T2:T11,2,1)</f>
+        <v>2.8320943688544041E-8</v>
+      </c>
       <c r="V18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13554,6 +13636,12 @@
       <c r="M22" t="s">
         <v>64</v>
       </c>
+      <c r="Q22" t="s">
+        <v>3663</v>
+      </c>
+      <c r="R22" t="s">
+        <v>3664</v>
+      </c>
       <c r="V22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13599,6 +13687,17 @@
       <c r="M23" t="s">
         <v>66</v>
       </c>
+      <c r="P23" t="s">
+        <v>3662</v>
+      </c>
+      <c r="Q23">
+        <f>AVERAGE(Q14:R14)</f>
+        <v>1.1324966077399996</v>
+      </c>
+      <c r="R23">
+        <f>AVERAGE(S14:T14)</f>
+        <v>1.6896516251447375</v>
+      </c>
       <c r="V23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13647,6 +13746,17 @@
       <c r="M24" t="s">
         <v>68</v>
       </c>
+      <c r="P24" t="s">
+        <v>3665</v>
+      </c>
+      <c r="Q24">
+        <f>STDEV(Q14:R14)</f>
+        <v>0.60229680348698567</v>
+      </c>
+      <c r="R24">
+        <f>STDEV(S14:T14)</f>
+        <v>1.2715777047388184</v>
+      </c>
       <c r="V24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13743,6 +13853,13 @@
       <c r="M26" t="s">
         <v>72</v>
       </c>
+      <c r="P26" t="s">
+        <v>3667</v>
+      </c>
+      <c r="Q26">
+        <f>TTEST(Q2:R11,S2:T11,2,1)</f>
+        <v>3.8685511613806669E-4</v>
+      </c>
       <c r="V26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -93625,6 +93742,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
